--- a/biology/Mycologie/Capnodiaceae/Capnodiaceae.xlsx
+++ b/biology/Mycologie/Capnodiaceae/Capnodiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Capnodiaceae sont une famille de champignons ascomycètes de la classe des Dothideomycetes.
-Les espèces de cette famille ont une aire de répartition très vaste et sont particulièrement répandues dans les zones tropicales et subtropicales, ainsi que dans les forêts pluviales tempérées[2].
-Les Capnodiaceae sont l'une des familles de fumagines. Ce sont des moisissures caractérisées par des asques bituniqués. La famille est cependant basée principalement sur des caractères écologiques. Elle a été créée par Höhnel en 1910 avec Capnodium comme genre type. Elle comprend actuellement 14 genres et 117 espèces[3].
+Les espèces de cette famille ont une aire de répartition très vaste et sont particulièrement répandues dans les zones tropicales et subtropicales, ainsi que dans les forêts pluviales tempérées.
+Les Capnodiaceae sont l'une des familles de fumagines. Ce sont des moisissures caractérisées par des asques bituniqués. La famille est cependant basée principalement sur des caractères écologiques. Elle a été créée par Höhnel en 1910 avec Capnodium comme genre type. Elle comprend actuellement 14 genres et 117 espèces.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 mars 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 mars 2016) :
 genre Acanthorus
 genre Aithaloderma
 genre Anopeltis
@@ -560,7 +574,7 @@
 genre Tripospermum
 genre Vertixore
 genre Xystozukalia
-Selon ITIS      (30 mars 2016)[1] :
+Selon ITIS      (30 mars 2016) :
 genre Capnodium
 genre Phragmocapnias
 genre Scorias</t>
@@ -591,9 +605,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 mars 2016)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 mars 2016) :
 genre Antennariella
 Antennariella californica
 Antennariella placitae
